--- a/data_excel/602.xlsx
+++ b/data_excel/602.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\Revise_final\1000題example excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -69,9 +69,6 @@
     <t>放進</t>
   </si>
   <si>
-    <t>nv</t>
-  </si>
-  <si>
     <t>28</t>
   </si>
   <si>
@@ -132,6 +129,10 @@
   </si>
   <si>
     <t>adv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -554,7 +555,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -610,10 +611,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -621,47 +622,47 @@
     </row>
     <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -670,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -681,10 +682,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -713,45 +714,45 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data_excel/602.xlsx
+++ b/data_excel/602.xlsx
@@ -108,10 +108,6 @@
     <t>44</t>
   </si>
   <si>
-    <t>+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -132,7 +128,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>pv</t>
+    <t>snv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,27 +179,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFFF0000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -245,11 +230,11 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -555,7 +540,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -611,10 +596,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -630,14 +615,14 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -714,13 +699,13 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
